--- a/state_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
+++ b/state_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32081866600551</v>
+        <v>1.47739868450006</v>
       </c>
       <c r="H2" t="n">
-        <v>10.6205162911796</v>
+        <v>16.8941070486943</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -651,7 +651,7 @@
         <v>0.0145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0156860883898373</v>
+        <v>0.0156896759716549</v>
       </c>
       <c r="H3" t="n">
         <v>0.037</v>
@@ -732,7 +732,7 @@
         <v>0.0145</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0156860883898373</v>
+        <v>0.0156896759716549</v>
       </c>
       <c r="H4" t="n">
         <v>0.037</v>
@@ -813,7 +813,7 @@
         <v>292.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1859.30594152827</v>
+        <v>1935.34452294063</v>
       </c>
       <c r="H5" t="n">
         <v>13000</v>
@@ -831,7 +831,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>2735</v>
+        <v>4777.74664</v>
       </c>
       <c r="N5" t="n">
         <v>8000</v>
@@ -898,7 +898,7 @@
         <v>292.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1859.30594152827</v>
+        <v>1935.34452294063</v>
       </c>
       <c r="H6" t="n">
         <v>13000</v>
@@ -916,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>2735</v>
+        <v>4777.74664</v>
       </c>
       <c r="N6" t="n">
         <v>8000</v>
@@ -983,7 +983,7 @@
         <v>292.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1859.30594152827</v>
+        <v>1935.34452294063</v>
       </c>
       <c r="H7" t="n">
         <v>13000</v>
@@ -1001,7 +1001,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>2735</v>
+        <v>4777.74664</v>
       </c>
       <c r="N7" t="n">
         <v>8000</v>
@@ -1068,7 +1068,7 @@
         <v>292.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1859.30594152827</v>
+        <v>1935.34452294063</v>
       </c>
       <c r="H8" t="n">
         <v>13000</v>
@@ -1086,7 +1086,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>2735</v>
+        <v>4777.74664</v>
       </c>
       <c r="N8" t="n">
         <v>8000</v>
@@ -1315,13 +1315,13 @@
         <v>0.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.45960657861576</v>
+        <v>1.59278678984497</v>
       </c>
       <c r="H11" t="n">
-        <v>10.6205162911796</v>
+        <v>16.8941070486943</v>
       </c>
       <c r="I11" t="n">
-        <v>4.34183</v>
+        <v>4.31445</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1396,7 +1396,7 @@
         <v>0.015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01487545304678</v>
+        <v>0.0148811407872534</v>
       </c>
       <c r="H12" t="n">
         <v>0.037</v>
@@ -1477,7 +1477,7 @@
         <v>0.015</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01487545304678</v>
+        <v>0.0148811407872534</v>
       </c>
       <c r="H13" t="n">
         <v>0.037</v>
@@ -2060,10 +2060,10 @@
         <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.40110540386295</v>
+        <v>1.51050343451551</v>
       </c>
       <c r="H20" t="n">
-        <v>10.6205162911796</v>
+        <v>16.8941070486943</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -2141,7 +2141,7 @@
         <v>0.0145</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0151000539278243</v>
+        <v>0.0151058415376862</v>
       </c>
       <c r="H21" t="n">
         <v>0.045</v>
@@ -2222,7 +2222,7 @@
         <v>0.0145</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0151000539278243</v>
+        <v>0.0151058415376862</v>
       </c>
       <c r="H22" t="n">
         <v>0.045</v>
@@ -2720,7 +2720,7 @@
         <v>0.00643</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0085569781327537</v>
+        <v>0.008566470725546799</v>
       </c>
       <c r="H28" t="n">
         <v>0.0526649362597545</v>
@@ -2801,7 +2801,7 @@
         <v>0.00643</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0085569781327537</v>
+        <v>0.008566470725546799</v>
       </c>
       <c r="H29" t="n">
         <v>0.0526649362597545</v>
@@ -3040,7 +3040,7 @@
         <v>0.655</v>
       </c>
       <c r="G32" t="n">
-        <v>0.626241379310345</v>
+        <v>0.6262224137931029</v>
       </c>
       <c r="H32" t="n">
         <v>1.46</v>
@@ -3051,13 +3051,13 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.309</v>
+        <v>0.30875</v>
       </c>
       <c r="M32" t="n">
         <v>0.9774</v>
       </c>
       <c r="N32" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O32" t="n">
         <v>1839393</v>
@@ -3117,7 +3117,7 @@
         <v>0.655</v>
       </c>
       <c r="G33" t="n">
-        <v>0.626241379310345</v>
+        <v>0.6262224137931029</v>
       </c>
       <c r="H33" t="n">
         <v>1.46</v>
@@ -3128,13 +3128,13 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.309</v>
+        <v>0.30875</v>
       </c>
       <c r="M33" t="n">
         <v>0.9774</v>
       </c>
       <c r="N33" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O33" t="n">
         <v>1839393</v>
@@ -3198,13 +3198,13 @@
         <v>0.79</v>
       </c>
       <c r="G34" t="n">
-        <v>1.57697033977408</v>
+        <v>1.59338777839127</v>
       </c>
       <c r="H34" t="n">
-        <v>10.6205162911796</v>
+        <v>16.8941070486943</v>
       </c>
       <c r="I34" t="n">
-        <v>5.28187</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -3212,7 +3212,7 @@
         <v>1.8</v>
       </c>
       <c r="M34" t="n">
-        <v>2.6075</v>
+        <v>2.58472</v>
       </c>
       <c r="N34" t="n">
         <v>4</v>
@@ -3279,7 +3279,7 @@
         <v>0.013</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0129967478556545</v>
+        <v>0.0130064639427297</v>
       </c>
       <c r="H35" t="n">
         <v>0.045</v>
@@ -3360,7 +3360,7 @@
         <v>0.013</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0129967478556545</v>
+        <v>0.0130064639427297</v>
       </c>
       <c r="H36" t="n">
         <v>0.045</v>
@@ -3858,7 +3858,7 @@
         <v>0.00623</v>
       </c>
       <c r="G42" t="n">
-        <v>0.008341767535743901</v>
+        <v>0.008350685560821299</v>
       </c>
       <c r="H42" t="n">
         <v>0.0526649362597545</v>
@@ -3939,7 +3939,7 @@
         <v>0.00623</v>
       </c>
       <c r="G43" t="n">
-        <v>0.008341767535743901</v>
+        <v>0.008350685560821299</v>
       </c>
       <c r="H43" t="n">
         <v>0.0526649362597545</v>
@@ -4178,7 +4178,7 @@
         <v>0.608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.628620689655172</v>
+        <v>0.628601724137931</v>
       </c>
       <c r="H46" t="n">
         <v>1.46</v>
@@ -4189,13 +4189,13 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.309</v>
+        <v>0.30875</v>
       </c>
       <c r="M46" t="n">
         <v>0.97804</v>
       </c>
       <c r="N46" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O46" t="n">
         <v>1839393</v>
@@ -4255,7 +4255,7 @@
         <v>0.608</v>
       </c>
       <c r="G47" t="n">
-        <v>0.628620689655172</v>
+        <v>0.628601724137931</v>
       </c>
       <c r="H47" t="n">
         <v>1.46</v>
@@ -4266,13 +4266,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.309</v>
+        <v>0.30875</v>
       </c>
       <c r="M47" t="n">
         <v>0.97804</v>
       </c>
       <c r="N47" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O47" t="n">
         <v>1839393</v>
@@ -4644,10 +4644,10 @@
         <v>0.79</v>
       </c>
       <c r="G52" t="n">
-        <v>1.21805635534788</v>
+        <v>1.21136010566579</v>
       </c>
       <c r="H52" t="n">
-        <v>8.571466071249549</v>
+        <v>7.12758504879298</v>
       </c>
       <c r="I52" t="n">
         <v>4</v>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>2.605</v>
+        <v>3.41332</v>
       </c>
       <c r="O52" t="n">
         <v>1839393</v>
@@ -4725,7 +4725,7 @@
         <v>0.013</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0130023680183991</v>
+        <v>0.013013472064956</v>
       </c>
       <c r="H53" t="n">
         <v>0.045</v>
@@ -4806,7 +4806,7 @@
         <v>0.013</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0130023680183991</v>
+        <v>0.013013472064956</v>
       </c>
       <c r="H54" t="n">
         <v>0.045</v>
@@ -5304,7 +5304,7 @@
         <v>0.00752</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0095210367011207</v>
+        <v>0.009525707436888501</v>
       </c>
       <c r="H60" t="n">
         <v>0.0526649362597545</v>
@@ -5385,7 +5385,7 @@
         <v>0.00752</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0095210367011207</v>
+        <v>0.009525707436888501</v>
       </c>
       <c r="H61" t="n">
         <v>0.0526649362597545</v>
@@ -5624,7 +5624,7 @@
         <v>0.5975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.632258620689655</v>
+        <v>0.632231034482759</v>
       </c>
       <c r="H64" t="n">
         <v>1.456</v>
@@ -5641,7 +5641,7 @@
         <v>0.9517600000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O64" t="n">
         <v>1839393</v>
@@ -5701,7 +5701,7 @@
         <v>0.5975</v>
       </c>
       <c r="G65" t="n">
-        <v>0.632258620689655</v>
+        <v>0.632231034482759</v>
       </c>
       <c r="H65" t="n">
         <v>1.456</v>
@@ -5718,7 +5718,7 @@
         <v>0.9517600000000001</v>
       </c>
       <c r="N65" t="n">
-        <v>1.19062</v>
+        <v>1.19055</v>
       </c>
       <c r="O65" t="n">
         <v>1839393</v>
@@ -6171,13 +6171,13 @@
         <v>0.9</v>
       </c>
       <c r="G71" t="n">
-        <v>1.51981892321262</v>
+        <v>1.51384869859799</v>
       </c>
       <c r="H71" t="n">
-        <v>9.139533735176119</v>
+        <v>9.181015545383049</v>
       </c>
       <c r="I71" t="n">
-        <v>5.48278</v>
+        <v>5.36641</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6185,7 +6185,7 @@
         <v>1.2</v>
       </c>
       <c r="M71" t="n">
-        <v>2.348</v>
+        <v>2.548</v>
       </c>
       <c r="N71" t="n">
         <v>4.052</v>
@@ -6252,7 +6252,7 @@
         <v>0.012</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0124163050666307</v>
+        <v>0.0124264687013821</v>
       </c>
       <c r="H72" t="n">
         <v>0.045</v>
@@ -6333,7 +6333,7 @@
         <v>0.012</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0124163050666307</v>
+        <v>0.0124264687013821</v>
       </c>
       <c r="H73" t="n">
         <v>0.045</v>
@@ -6831,7 +6831,7 @@
         <v>0.008449999999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0102200287576842</v>
+        <v>0.0102213828481686</v>
       </c>
       <c r="H79" t="n">
         <v>0.0526649362597545</v>
@@ -6912,7 +6912,7 @@
         <v>0.008449999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0102200287576842</v>
+        <v>0.0102213828481686</v>
       </c>
       <c r="H80" t="n">
         <v>0.0526649362597545</v>
@@ -7151,7 +7151,7 @@
         <v>0.5575</v>
       </c>
       <c r="G83" t="n">
-        <v>0.606051724137931</v>
+        <v>0.606012068965517</v>
       </c>
       <c r="H83" t="n">
         <v>1.456</v>
@@ -7228,7 +7228,7 @@
         <v>0.5575</v>
       </c>
       <c r="G84" t="n">
-        <v>0.606051724137931</v>
+        <v>0.606012068965517</v>
       </c>
       <c r="H84" t="n">
         <v>1.456</v>
@@ -7775,10 +7775,10 @@
         <v>0.875</v>
       </c>
       <c r="G91" t="n">
-        <v>1.50122493908329</v>
+        <v>1.49763472145655</v>
       </c>
       <c r="H91" t="n">
-        <v>9.139533735176119</v>
+        <v>9.181015545383049</v>
       </c>
       <c r="I91" t="n">
         <v>4.2</v>
@@ -7789,7 +7789,7 @@
         <v>1.125</v>
       </c>
       <c r="M91" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="N91" t="n">
         <v>4</v>
@@ -7856,7 +7856,7 @@
         <v>0.012</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0119566599366002</v>
+        <v>0.0119645526533127</v>
       </c>
       <c r="H92" t="n">
         <v>0.045</v>
@@ -7937,7 +7937,7 @@
         <v>0.012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0119566599366002</v>
+        <v>0.0119645526533127</v>
       </c>
       <c r="H93" t="n">
         <v>0.045</v>
@@ -8435,7 +8435,7 @@
         <v>0.00636</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0091930212193191</v>
+        <v>0.0091938661428366</v>
       </c>
       <c r="H99" t="n">
         <v>0.0526649362597545</v>
@@ -8516,7 +8516,7 @@
         <v>0.00636</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0091930212193191</v>
+        <v>0.0091938661428366</v>
       </c>
       <c r="H100" t="n">
         <v>0.0526649362597545</v>
@@ -8832,10 +8832,10 @@
         <v>0.592</v>
       </c>
       <c r="G104" t="n">
-        <v>0.611525423728814</v>
+        <v>0.6115</v>
       </c>
       <c r="H104" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I104" t="n">
         <v>1.2521</v>
@@ -8843,13 +8843,13 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.3025</v>
+        <v>0.30205</v>
       </c>
       <c r="M104" t="n">
         <v>0.94441</v>
       </c>
       <c r="N104" t="n">
-        <v>1.0839</v>
+        <v>1.08399</v>
       </c>
       <c r="O104" t="n">
         <v>1839393</v>
@@ -8909,10 +8909,10 @@
         <v>0.592</v>
       </c>
       <c r="G105" t="n">
-        <v>0.611525423728814</v>
+        <v>0.6115</v>
       </c>
       <c r="H105" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I105" t="n">
         <v>1.2521</v>
@@ -8920,13 +8920,13 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.3025</v>
+        <v>0.30205</v>
       </c>
       <c r="M105" t="n">
         <v>0.94441</v>
       </c>
       <c r="N105" t="n">
-        <v>1.0839</v>
+        <v>1.08399</v>
       </c>
       <c r="O105" t="n">
         <v>1839393</v>
@@ -9456,13 +9456,13 @@
         <v>0.9</v>
       </c>
       <c r="G112" t="n">
-        <v>1.65677318498057</v>
+        <v>1.65259851332156</v>
       </c>
       <c r="H112" t="n">
-        <v>9.139533735176119</v>
+        <v>9.181015545383049</v>
       </c>
       <c r="I112" t="n">
-        <v>5.73001</v>
+        <v>5.22465</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9470,7 +9470,7 @@
         <v>2.2</v>
       </c>
       <c r="M112" t="n">
-        <v>2.719</v>
+        <v>2.857</v>
       </c>
       <c r="N112" t="n">
         <v>4.012</v>
@@ -9537,7 +9537,7 @@
         <v>0.0105</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0108731234832631</v>
+        <v>0.0108812407444324</v>
       </c>
       <c r="H113" t="n">
         <v>0.029</v>
@@ -9618,7 +9618,7 @@
         <v>0.0105</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0108731234832631</v>
+        <v>0.0108812407444324</v>
       </c>
       <c r="H114" t="n">
         <v>0.029</v>
@@ -10116,7 +10116,7 @@
         <v>0.00579</v>
       </c>
       <c r="G120" t="n">
-        <v>0.008717320821075</v>
+        <v>0.008724687053501601</v>
       </c>
       <c r="H120" t="n">
         <v>0.0479368157777498</v>
@@ -10127,7 +10127,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.0012</v>
+        <v>0.00128</v>
       </c>
       <c r="M120" t="n">
         <v>0.0153</v>
@@ -10197,7 +10197,7 @@
         <v>0.00579</v>
       </c>
       <c r="G121" t="n">
-        <v>0.008717320821075</v>
+        <v>0.008724687053501601</v>
       </c>
       <c r="H121" t="n">
         <v>0.0479368157777498</v>
@@ -10208,7 +10208,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.0012</v>
+        <v>0.00128</v>
       </c>
       <c r="M121" t="n">
         <v>0.0153</v>
@@ -10510,13 +10510,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.5875</v>
+        <v>0.58775</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5942333333333329</v>
+        <v>0.594221666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I125" t="n">
         <v>1.242</v>
@@ -10524,13 +10524,13 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M125" t="n">
         <v>0.91</v>
       </c>
       <c r="N125" t="n">
-        <v>1.0795</v>
+        <v>1.07962</v>
       </c>
       <c r="O125" t="n">
         <v>1839393</v>
@@ -10587,13 +10587,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.5875</v>
+        <v>0.58775</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5942333333333329</v>
+        <v>0.594221666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I126" t="n">
         <v>1.242</v>
@@ -10601,13 +10601,13 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M126" t="n">
         <v>0.91</v>
       </c>
       <c r="N126" t="n">
-        <v>1.0795</v>
+        <v>1.07962</v>
       </c>
       <c r="O126" t="n">
         <v>1839393</v>
@@ -11137,13 +11137,13 @@
         <v>1.1</v>
       </c>
       <c r="G133" t="n">
-        <v>1.54124452207287</v>
+        <v>1.6673400148544</v>
       </c>
       <c r="H133" t="n">
-        <v>9.139533735176119</v>
+        <v>9.181015545383049</v>
       </c>
       <c r="I133" t="n">
-        <v>3.9</v>
+        <v>5.66379</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11151,10 +11151,10 @@
         <v>1.525</v>
       </c>
       <c r="M133" t="n">
-        <v>2.635</v>
+        <v>2.685</v>
       </c>
       <c r="N133" t="n">
-        <v>3.25</v>
+        <v>3.78</v>
       </c>
       <c r="O133" t="n">
         <v>1839393</v>
@@ -11218,7 +11218,7 @@
         <v>0.01</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0109830061685443</v>
+        <v>0.0109921341490342</v>
       </c>
       <c r="H134" t="n">
         <v>0.045</v>
@@ -11299,7 +11299,7 @@
         <v>0.01</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0109830061685443</v>
+        <v>0.0109921341490342</v>
       </c>
       <c r="H135" t="n">
         <v>0.045</v>
@@ -11794,10 +11794,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00162</v>
+        <v>0.00171</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0064077769212737</v>
+        <v>0.0064322237460673</v>
       </c>
       <c r="H141" t="n">
         <v>0.0479368157777498</v>
@@ -11808,7 +11808,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.0012</v>
+        <v>0.00128</v>
       </c>
       <c r="M141" t="n">
         <v>0.0127</v>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00162</v>
+        <v>0.00171</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0064077769212737</v>
+        <v>0.0064322237460673</v>
       </c>
       <c r="H142" t="n">
         <v>0.0479368157777498</v>
@@ -11889,7 +11889,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.0012</v>
+        <v>0.00128</v>
       </c>
       <c r="M142" t="n">
         <v>0.0127</v>
@@ -12191,13 +12191,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.5665</v>
+        <v>0.5663</v>
       </c>
       <c r="G146" t="n">
-        <v>0.57755</v>
+        <v>0.577538333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I146" t="n">
         <v>1.24</v>
@@ -12205,7 +12205,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M146" t="n">
         <v>0.9208</v>
@@ -12268,13 +12268,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.5665</v>
+        <v>0.5663</v>
       </c>
       <c r="G147" t="n">
-        <v>0.57755</v>
+        <v>0.577538333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I147" t="n">
         <v>1.24</v>
@@ -12282,7 +12282,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M147" t="n">
         <v>0.9208</v>
@@ -12818,10 +12818,10 @@
         <v>1.275</v>
       </c>
       <c r="G154" t="n">
-        <v>1.5654883433794</v>
+        <v>1.56652538863458</v>
       </c>
       <c r="H154" t="n">
-        <v>9.139533735176119</v>
+        <v>9.181015545383049</v>
       </c>
       <c r="I154" t="n">
         <v>3.9</v>
@@ -12899,7 +12899,7 @@
         <v>0.0105</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0120867086047092</v>
+        <v>0.012093012234567</v>
       </c>
       <c r="H155" t="n">
         <v>0.048</v>
@@ -12980,7 +12980,7 @@
         <v>0.0105</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0120867086047092</v>
+        <v>0.012093012234567</v>
       </c>
       <c r="H156" t="n">
         <v>0.048</v>
@@ -13475,10 +13475,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00167</v>
+        <v>0.00175</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0053963766647312</v>
+        <v>0.0054299212567375</v>
       </c>
       <c r="H162" t="n">
         <v>0.0479368157777498</v>
@@ -13489,7 +13489,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00131</v>
+        <v>0.00135</v>
       </c>
       <c r="M162" t="n">
         <v>0.00912</v>
@@ -13556,10 +13556,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00167</v>
+        <v>0.00175</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0053963766647312</v>
+        <v>0.0054299212567375</v>
       </c>
       <c r="H163" t="n">
         <v>0.0479368157777498</v>
@@ -13570,7 +13570,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00131</v>
+        <v>0.00135</v>
       </c>
       <c r="M163" t="n">
         <v>0.00912</v>
@@ -13872,13 +13872,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.5775</v>
+        <v>0.5773</v>
       </c>
       <c r="G167" t="n">
-        <v>0.588866666666667</v>
+        <v>0.588855</v>
       </c>
       <c r="H167" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I167" t="n">
         <v>1.24</v>
@@ -13886,10 +13886,10 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M167" t="n">
-        <v>0.9821</v>
+        <v>0.98226</v>
       </c>
       <c r="N167" t="n">
         <v>1.1272</v>
@@ -13949,13 +13949,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.5775</v>
+        <v>0.5773</v>
       </c>
       <c r="G168" t="n">
-        <v>0.588866666666667</v>
+        <v>0.588855</v>
       </c>
       <c r="H168" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I168" t="n">
         <v>1.24</v>
@@ -13963,10 +13963,10 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.229</v>
+        <v>0.22895</v>
       </c>
       <c r="M168" t="n">
-        <v>0.9821</v>
+        <v>0.98226</v>
       </c>
       <c r="N168" t="n">
         <v>1.1272</v>
@@ -14580,7 +14580,7 @@
         <v>0.013</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0137700419380425</v>
+        <v>0.0137763455679003</v>
       </c>
       <c r="H176" t="n">
         <v>0.048</v>
@@ -14661,7 +14661,7 @@
         <v>0.013</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0137700419380425</v>
+        <v>0.0137763455679003</v>
       </c>
       <c r="H177" t="n">
         <v>0.048</v>
@@ -15156,10 +15156,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00219</v>
+        <v>0.00229</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0063282511553434</v>
+        <v>0.0063672278663668</v>
       </c>
       <c r="H183" t="n">
         <v>0.0601233256286894</v>
@@ -15170,7 +15170,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00202</v>
+        <v>0.00212</v>
       </c>
       <c r="M183" t="n">
         <v>0.01002</v>
@@ -15237,10 +15237,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00219</v>
+        <v>0.00229</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0063282511553434</v>
+        <v>0.0063672278663668</v>
       </c>
       <c r="H184" t="n">
         <v>0.0601233256286894</v>
@@ -15251,7 +15251,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00202</v>
+        <v>0.00212</v>
       </c>
       <c r="M184" t="n">
         <v>0.01002</v>
@@ -15553,13 +15553,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.6</v>
+        <v>0.60025</v>
       </c>
       <c r="G188" t="n">
-        <v>0.608766666666667</v>
+        <v>0.60876</v>
       </c>
       <c r="H188" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I188" t="n">
         <v>1.24</v>
@@ -15570,7 +15570,7 @@
         <v>0.2625</v>
       </c>
       <c r="M188" t="n">
-        <v>0.9821</v>
+        <v>0.98226</v>
       </c>
       <c r="N188" t="n">
         <v>1.0905</v>
@@ -15630,13 +15630,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.6</v>
+        <v>0.60025</v>
       </c>
       <c r="G189" t="n">
-        <v>0.608766666666667</v>
+        <v>0.60876</v>
       </c>
       <c r="H189" t="n">
-        <v>2.159</v>
+        <v>2.1589</v>
       </c>
       <c r="I189" t="n">
         <v>1.24</v>
@@ -15647,7 +15647,7 @@
         <v>0.2625</v>
       </c>
       <c r="M189" t="n">
-        <v>0.9821</v>
+        <v>0.98226</v>
       </c>
       <c r="N189" t="n">
         <v>1.0905</v>
@@ -16261,7 +16261,7 @@
         <v>0.013</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0144054036425288</v>
+        <v>0.0144134154627766</v>
       </c>
       <c r="H197" t="n">
         <v>0.048</v>
@@ -16342,7 +16342,7 @@
         <v>0.013</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0144054036425288</v>
+        <v>0.0144134154627766</v>
       </c>
       <c r="H198" t="n">
         <v>0.048</v>
@@ -16837,10 +16837,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00439</v>
+        <v>0.0045</v>
       </c>
       <c r="G204" t="n">
-        <v>0.008472157935285499</v>
+        <v>0.008524978038546901</v>
       </c>
       <c r="H204" t="n">
         <v>0.0663744263735971</v>
@@ -16851,7 +16851,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00245</v>
+        <v>0.00256</v>
       </c>
       <c r="M204" t="n">
         <v>0.0114</v>
@@ -16918,10 +16918,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.00439</v>
+        <v>0.0045</v>
       </c>
       <c r="G205" t="n">
-        <v>0.008472157935285499</v>
+        <v>0.008524978038546901</v>
       </c>
       <c r="H205" t="n">
         <v>0.0663744263735971</v>
@@ -16932,7 +16932,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00245</v>
+        <v>0.00256</v>
       </c>
       <c r="M205" t="n">
         <v>0.0114</v>
@@ -17234,10 +17234,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.5775</v>
+        <v>0.5773</v>
       </c>
       <c r="G209" t="n">
-        <v>0.57475</v>
+        <v>0.574746666666667</v>
       </c>
       <c r="H209" t="n">
         <v>1.47</v>
@@ -17251,7 +17251,7 @@
         <v>0.24</v>
       </c>
       <c r="M209" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.93812</v>
       </c>
       <c r="N209" t="n">
         <v>1.0905</v>
@@ -17311,10 +17311,10 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.5775</v>
+        <v>0.5773</v>
       </c>
       <c r="G210" t="n">
-        <v>0.57475</v>
+        <v>0.574746666666667</v>
       </c>
       <c r="H210" t="n">
         <v>1.47</v>
@@ -17328,7 +17328,7 @@
         <v>0.24</v>
       </c>
       <c r="M210" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.93812</v>
       </c>
       <c r="N210" t="n">
         <v>1.0905</v>
@@ -17942,7 +17942,7 @@
         <v>0.013</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0145037781559356</v>
+        <v>0.0145104050417154</v>
       </c>
       <c r="H218" t="n">
         <v>0.048</v>
@@ -18023,7 +18023,7 @@
         <v>0.013</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0145037781559356</v>
+        <v>0.0145104050417154</v>
       </c>
       <c r="H219" t="n">
         <v>0.048</v>
@@ -18104,10 +18104,10 @@
         <v>280</v>
       </c>
       <c r="G220" t="n">
-        <v>1706.74124347991</v>
+        <v>1792.14335836334</v>
       </c>
       <c r="H220" t="n">
-        <v>20000</v>
+        <v>23626.3147850734</v>
       </c>
       <c r="I220" t="n">
         <v>13800</v>
@@ -18189,10 +18189,10 @@
         <v>280</v>
       </c>
       <c r="G221" t="n">
-        <v>1706.74124347991</v>
+        <v>1792.14335836334</v>
       </c>
       <c r="H221" t="n">
-        <v>20000</v>
+        <v>23626.3147850734</v>
       </c>
       <c r="I221" t="n">
         <v>13800</v>
@@ -18274,10 +18274,10 @@
         <v>280</v>
       </c>
       <c r="G222" t="n">
-        <v>1706.74124347991</v>
+        <v>1792.14335836334</v>
       </c>
       <c r="H222" t="n">
-        <v>20000</v>
+        <v>23626.3147850734</v>
       </c>
       <c r="I222" t="n">
         <v>13800</v>
@@ -18359,10 +18359,10 @@
         <v>280</v>
       </c>
       <c r="G223" t="n">
-        <v>1706.74124347991</v>
+        <v>1792.14335836334</v>
       </c>
       <c r="H223" t="n">
-        <v>20000</v>
+        <v>23626.3147850734</v>
       </c>
       <c r="I223" t="n">
         <v>13800</v>
@@ -18521,7 +18521,7 @@
         <v>0.00471</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0085908647181004</v>
+        <v>0.008639450290622601</v>
       </c>
       <c r="H225" t="n">
         <v>0.0663744263735971</v>
@@ -18602,7 +18602,7 @@
         <v>0.00471</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0085908647181004</v>
+        <v>0.008639450290622601</v>
       </c>
       <c r="H226" t="n">
         <v>0.0663744263735971</v>
@@ -19623,7 +19623,7 @@
         <v>0.013</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0142054525808335</v>
+        <v>0.014207189723603</v>
       </c>
       <c r="H239" t="n">
         <v>0.048</v>
@@ -19704,7 +19704,7 @@
         <v>0.013</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0142054525808335</v>
+        <v>0.014207189723603</v>
       </c>
       <c r="H240" t="n">
         <v>0.048</v>
@@ -19785,13 +19785,13 @@
         <v>330</v>
       </c>
       <c r="G241" t="n">
-        <v>2487.0515883075</v>
+        <v>2572.45370319092</v>
       </c>
       <c r="H241" t="n">
         <v>26000</v>
       </c>
       <c r="I241" t="n">
-        <v>17203.79527</v>
+        <v>18000</v>
       </c>
       <c r="J241" t="n">
         <v>29.3103448275862</v>
@@ -19870,13 +19870,13 @@
         <v>330</v>
       </c>
       <c r="G242" t="n">
-        <v>2487.0515883075</v>
+        <v>2572.45370319092</v>
       </c>
       <c r="H242" t="n">
         <v>26000</v>
       </c>
       <c r="I242" t="n">
-        <v>17203.79527</v>
+        <v>18000</v>
       </c>
       <c r="J242" t="n">
         <v>29.3103448275862</v>
@@ -19955,13 +19955,13 @@
         <v>330</v>
       </c>
       <c r="G243" t="n">
-        <v>2487.0515883075</v>
+        <v>2572.45370319092</v>
       </c>
       <c r="H243" t="n">
         <v>26000</v>
       </c>
       <c r="I243" t="n">
-        <v>17203.79527</v>
+        <v>18000</v>
       </c>
       <c r="J243" t="n">
         <v>29.3103448275862</v>
@@ -20040,13 +20040,13 @@
         <v>330</v>
       </c>
       <c r="G244" t="n">
-        <v>2487.0515883075</v>
+        <v>2572.45370319092</v>
       </c>
       <c r="H244" t="n">
         <v>26000</v>
       </c>
       <c r="I244" t="n">
-        <v>17203.79527</v>
+        <v>18000</v>
       </c>
       <c r="J244" t="n">
         <v>29.3103448275862</v>
@@ -20202,7 +20202,7 @@
         <v>0.0061</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0093759616894016</v>
+        <v>0.009405475509614101</v>
       </c>
       <c r="H246" t="n">
         <v>0.0663744263735971</v>
@@ -20283,7 +20283,7 @@
         <v>0.0061</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0093759616894016</v>
+        <v>0.009405475509614101</v>
       </c>
       <c r="H247" t="n">
         <v>0.0663744263735971</v>
@@ -20599,7 +20599,7 @@
         <v>0.46</v>
       </c>
       <c r="G251" t="n">
-        <v>0.521949152542373</v>
+        <v>0.521940677966102</v>
       </c>
       <c r="H251" t="n">
         <v>1.47</v>
@@ -20676,7 +20676,7 @@
         <v>0.46</v>
       </c>
       <c r="G252" t="n">
-        <v>0.521949152542373</v>
+        <v>0.521940677966102</v>
       </c>
       <c r="H252" t="n">
         <v>1.47</v>
@@ -21304,7 +21304,7 @@
         <v>0.013</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0142393508859182</v>
+        <v>0.0142410880286877</v>
       </c>
       <c r="H260" t="n">
         <v>0.045</v>
@@ -21385,7 +21385,7 @@
         <v>0.013</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0142393508859182</v>
+        <v>0.0142410880286877</v>
       </c>
       <c r="H261" t="n">
         <v>0.045</v>
@@ -21466,13 +21466,13 @@
         <v>340</v>
       </c>
       <c r="G262" t="n">
-        <v>2861.34418484508</v>
+        <v>2954.54319515676</v>
       </c>
       <c r="H262" t="n">
         <v>26000</v>
       </c>
       <c r="I262" t="n">
-        <v>17469.38732</v>
+        <v>18444.68018</v>
       </c>
       <c r="J262" t="n">
         <v>33.8983050847458</v>
@@ -21551,13 +21551,13 @@
         <v>340</v>
       </c>
       <c r="G263" t="n">
-        <v>2861.34418484508</v>
+        <v>2954.54319515676</v>
       </c>
       <c r="H263" t="n">
         <v>26000</v>
       </c>
       <c r="I263" t="n">
-        <v>17469.38732</v>
+        <v>18444.68018</v>
       </c>
       <c r="J263" t="n">
         <v>33.8983050847458</v>
@@ -21636,13 +21636,13 @@
         <v>340</v>
       </c>
       <c r="G264" t="n">
-        <v>2861.34418484508</v>
+        <v>2954.54319515676</v>
       </c>
       <c r="H264" t="n">
         <v>26000</v>
       </c>
       <c r="I264" t="n">
-        <v>17469.38732</v>
+        <v>18444.68018</v>
       </c>
       <c r="J264" t="n">
         <v>33.8983050847458</v>
@@ -21721,13 +21721,13 @@
         <v>340</v>
       </c>
       <c r="G265" t="n">
-        <v>2861.34418484508</v>
+        <v>2954.54319515676</v>
       </c>
       <c r="H265" t="n">
         <v>26000</v>
       </c>
       <c r="I265" t="n">
-        <v>17469.38732</v>
+        <v>18444.68018</v>
       </c>
       <c r="J265" t="n">
         <v>33.8983050847458</v>
@@ -21883,7 +21883,7 @@
         <v>0.00759</v>
       </c>
       <c r="G267" t="n">
-        <v>0.010524418741468</v>
+        <v>0.0105431866479314</v>
       </c>
       <c r="H267" t="n">
         <v>0.0663744263735971</v>
@@ -21894,7 +21894,7 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
-        <v>0.00627</v>
+        <v>0.00644</v>
       </c>
       <c r="M267" t="n">
         <v>0.01515</v>
@@ -21964,7 +21964,7 @@
         <v>0.00759</v>
       </c>
       <c r="G268" t="n">
-        <v>0.010524418741468</v>
+        <v>0.0105431866479314</v>
       </c>
       <c r="H268" t="n">
         <v>0.0663744263735971</v>
@@ -21975,7 +21975,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
-        <v>0.00627</v>
+        <v>0.00644</v>
       </c>
       <c r="M268" t="n">
         <v>0.01515</v>
@@ -22280,7 +22280,7 @@
         <v>0.483</v>
       </c>
       <c r="G272" t="n">
-        <v>0.524305084745763</v>
+        <v>0.52428813559322</v>
       </c>
       <c r="H272" t="n">
         <v>1.294</v>
@@ -22357,7 +22357,7 @@
         <v>0.483</v>
       </c>
       <c r="G273" t="n">
-        <v>0.524305084745763</v>
+        <v>0.52428813559322</v>
       </c>
       <c r="H273" t="n">
         <v>1.294</v>
@@ -22716,6 +22716,1606 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.4055</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P278" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1.16085106382979</v>
+      </c>
+      <c r="H279" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>4</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3.548</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P279" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0135728309257341</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0135728309257341</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P281" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2244.20773300429</v>
+      </c>
+      <c r="H282" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I282" t="n">
+        <v>13806.24024</v>
+      </c>
+      <c r="J282" t="n">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K282" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L282" t="n">
+        <v>255</v>
+      </c>
+      <c r="M282" t="n">
+        <v>3228</v>
+      </c>
+      <c r="N282" t="n">
+        <v>9211.68</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2244.20773300429</v>
+      </c>
+      <c r="H283" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I283" t="n">
+        <v>13806.24024</v>
+      </c>
+      <c r="J283" t="n">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K283" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L283" t="n">
+        <v>255</v>
+      </c>
+      <c r="M283" t="n">
+        <v>3228</v>
+      </c>
+      <c r="N283" t="n">
+        <v>9211.68</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2244.20773300429</v>
+      </c>
+      <c r="H284" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I284" t="n">
+        <v>13806.24024</v>
+      </c>
+      <c r="J284" t="n">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K284" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L284" t="n">
+        <v>255</v>
+      </c>
+      <c r="M284" t="n">
+        <v>3228</v>
+      </c>
+      <c r="N284" t="n">
+        <v>9211.68</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2244.20773300429</v>
+      </c>
+      <c r="H285" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I285" t="n">
+        <v>13806.24024</v>
+      </c>
+      <c r="J285" t="n">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K285" t="n">
+        <v>53.448275862069</v>
+      </c>
+      <c r="L285" t="n">
+        <v>255</v>
+      </c>
+      <c r="M285" t="n">
+        <v>3228</v>
+      </c>
+      <c r="N285" t="n">
+        <v>9211.68</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>94</v>
+      </c>
+      <c r="G286" t="n">
+        <v>90.13</v>
+      </c>
+      <c r="H286" t="n">
+        <v>100</v>
+      </c>
+      <c r="I286" t="n">
+        <v>100</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="M286" t="n">
+        <v>98.383</v>
+      </c>
+      <c r="N286" t="n">
+        <v>100</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0.00821</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.009917639672055599</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.0663744263735971</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.02135</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>0.00659</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.01553</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0.00821</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.009917639672055599</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.0663744263735971</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.02135</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>0.00659</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.01553</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0.4985</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.518051724137931</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.81268</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.97372</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0.4985</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.518051724137931</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.81268</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.97372</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G291" t="n">
+        <v>5.4364</v>
+      </c>
+      <c r="H291" t="n">
+        <v>6.327</v>
+      </c>
+      <c r="I291" t="n">
+        <v>6.327</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>5.3675</v>
+      </c>
+      <c r="M291" t="n">
+        <v>6.32455</v>
+      </c>
+      <c r="N291" t="n">
+        <v>6.327</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.540172413793103</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1.0938</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.83696</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1.00608</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.540172413793103</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1.0938</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.83696</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1.00608</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.818793103448276</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1.2428</v>
+      </c>
+      <c r="N294" t="n">
+        <v>1.3458</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.818793103448276</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.2428</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1.3458</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0951034482758621</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.3552</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Manawatu at Upper Gorge</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0951034482758621</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.3552</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1839393</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5531597</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_9a</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
+++ b/state_results/Rivers/ManawatuatUpperGorge_be8fe7d937.xlsx
@@ -570,10 +570,10 @@
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47739868450006</v>
+        <v>1.30024515825705</v>
       </c>
       <c r="H2" t="n">
-        <v>16.8941070486943</v>
+        <v>9.807965998974129</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -813,7 +813,7 @@
         <v>292.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1935.34452294063</v>
+        <v>1931.70589129774</v>
       </c>
       <c r="H5" t="n">
         <v>13000</v>
@@ -831,7 +831,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>4777.74664</v>
+        <v>4675.86496</v>
       </c>
       <c r="N5" t="n">
         <v>8000</v>
@@ -898,7 +898,7 @@
         <v>292.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1935.34452294063</v>
+        <v>1931.70589129774</v>
       </c>
       <c r="H6" t="n">
         <v>13000</v>
@@ -916,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>4777.74664</v>
+        <v>4675.86496</v>
       </c>
       <c r="N6" t="n">
         <v>8000</v>
@@ -983,7 +983,7 @@
         <v>292.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1935.34452294063</v>
+        <v>1931.70589129774</v>
       </c>
       <c r="H7" t="n">
         <v>13000</v>
@@ -1001,7 +1001,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>4777.74664</v>
+        <v>4675.86496</v>
       </c>
       <c r="N7" t="n">
         <v>8000</v>
@@ -1068,7 +1068,7 @@
         <v>292.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1935.34452294063</v>
+        <v>1931.70589129774</v>
       </c>
       <c r="H8" t="n">
         <v>13000</v>
@@ -1086,7 +1086,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>4777.74664</v>
+        <v>4675.86496</v>
       </c>
       <c r="N8" t="n">
         <v>8000</v>
@@ -1315,13 +1315,13 @@
         <v>0.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59278678984497</v>
+        <v>1.50581561606845</v>
       </c>
       <c r="H11" t="n">
-        <v>16.8941070486943</v>
+        <v>9.807965998974129</v>
       </c>
       <c r="I11" t="n">
-        <v>4.31445</v>
+        <v>4.93154</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -2060,10 +2060,10 @@
         <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51050343451551</v>
+        <v>1.4390628274848</v>
       </c>
       <c r="H20" t="n">
-        <v>16.8941070486943</v>
+        <v>9.807965998974129</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -3198,10 +3198,10 @@
         <v>0.79</v>
       </c>
       <c r="G34" t="n">
-        <v>1.59338777839127</v>
+        <v>1.52751973522447</v>
       </c>
       <c r="H34" t="n">
-        <v>16.8941070486943</v>
+        <v>9.807965998974129</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
@@ -3212,7 +3212,7 @@
         <v>1.8</v>
       </c>
       <c r="M34" t="n">
-        <v>2.58472</v>
+        <v>2.6075</v>
       </c>
       <c r="N34" t="n">
         <v>4</v>
@@ -4644,13 +4644,13 @@
         <v>0.79</v>
       </c>
       <c r="G52" t="n">
-        <v>1.21136010566579</v>
+        <v>1.18255075317548</v>
       </c>
       <c r="H52" t="n">
-        <v>7.12758504879298</v>
+        <v>8.657712008866641</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3.93152</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>3.41332</v>
+        <v>2.57761</v>
       </c>
       <c r="O52" t="n">
         <v>1839393</v>
@@ -6171,13 +6171,13 @@
         <v>0.9</v>
       </c>
       <c r="G71" t="n">
-        <v>1.51384869859799</v>
+        <v>1.46895277637988</v>
       </c>
       <c r="H71" t="n">
-        <v>9.181015545383049</v>
+        <v>8.657712008866641</v>
       </c>
       <c r="I71" t="n">
-        <v>5.36641</v>
+        <v>4.17</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6185,10 +6185,10 @@
         <v>1.2</v>
       </c>
       <c r="M71" t="n">
-        <v>2.548</v>
+        <v>2.348</v>
       </c>
       <c r="N71" t="n">
-        <v>4.052</v>
+        <v>4</v>
       </c>
       <c r="O71" t="n">
         <v>1839393</v>
@@ -7775,13 +7775,13 @@
         <v>0.875</v>
       </c>
       <c r="G91" t="n">
-        <v>1.49763472145655</v>
+        <v>1.38833570278533</v>
       </c>
       <c r="H91" t="n">
-        <v>9.181015545383049</v>
+        <v>8.386046054790031</v>
       </c>
       <c r="I91" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7789,10 +7789,10 @@
         <v>1.125</v>
       </c>
       <c r="M91" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="N91" t="n">
-        <v>4</v>
+        <v>3.86303</v>
       </c>
       <c r="O91" t="n">
         <v>1839393</v>
@@ -9456,13 +9456,13 @@
         <v>0.9</v>
       </c>
       <c r="G112" t="n">
-        <v>1.65259851332156</v>
+        <v>1.52550663114574</v>
       </c>
       <c r="H112" t="n">
-        <v>9.181015545383049</v>
+        <v>8.386046054790031</v>
       </c>
       <c r="I112" t="n">
-        <v>5.22465</v>
+        <v>4.07</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         <v>2.2</v>
       </c>
       <c r="M112" t="n">
-        <v>2.857</v>
+        <v>2.719</v>
       </c>
       <c r="N112" t="n">
-        <v>4.012</v>
+        <v>3.7425</v>
       </c>
       <c r="O112" t="n">
         <v>1839393</v>
@@ -11137,13 +11137,13 @@
         <v>1.1</v>
       </c>
       <c r="G133" t="n">
-        <v>1.6673400148544</v>
+        <v>1.52126795102674</v>
       </c>
       <c r="H133" t="n">
-        <v>9.181015545383049</v>
+        <v>8.386046054790031</v>
       </c>
       <c r="I133" t="n">
-        <v>5.66379</v>
+        <v>3.9</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11151,10 +11151,10 @@
         <v>1.525</v>
       </c>
       <c r="M133" t="n">
-        <v>2.685</v>
+        <v>2.635</v>
       </c>
       <c r="N133" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O133" t="n">
         <v>1839393</v>
@@ -12818,10 +12818,10 @@
         <v>1.275</v>
       </c>
       <c r="G154" t="n">
-        <v>1.56652538863458</v>
+        <v>1.54665115136975</v>
       </c>
       <c r="H154" t="n">
-        <v>9.181015545383049</v>
+        <v>8.386046054790031</v>
       </c>
       <c r="I154" t="n">
         <v>3.9</v>
@@ -18104,13 +18104,13 @@
         <v>280</v>
       </c>
       <c r="G220" t="n">
-        <v>1792.14335836334</v>
+        <v>1567.3981032251</v>
       </c>
       <c r="H220" t="n">
-        <v>23626.3147850734</v>
+        <v>20000</v>
       </c>
       <c r="I220" t="n">
-        <v>13800</v>
+        <v>11436.43599</v>
       </c>
       <c r="J220" t="n">
         <v>22.4137931034483</v>
@@ -18189,13 +18189,13 @@
         <v>280</v>
       </c>
       <c r="G221" t="n">
-        <v>1792.14335836334</v>
+        <v>1567.3981032251</v>
       </c>
       <c r="H221" t="n">
-        <v>23626.3147850734</v>
+        <v>20000</v>
       </c>
       <c r="I221" t="n">
-        <v>13800</v>
+        <v>11436.43599</v>
       </c>
       <c r="J221" t="n">
         <v>22.4137931034483</v>
@@ -18274,13 +18274,13 @@
         <v>280</v>
       </c>
       <c r="G222" t="n">
-        <v>1792.14335836334</v>
+        <v>1567.3981032251</v>
       </c>
       <c r="H222" t="n">
-        <v>23626.3147850734</v>
+        <v>20000</v>
       </c>
       <c r="I222" t="n">
-        <v>13800</v>
+        <v>11436.43599</v>
       </c>
       <c r="J222" t="n">
         <v>22.4137931034483</v>
@@ -18359,13 +18359,13 @@
         <v>280</v>
       </c>
       <c r="G223" t="n">
-        <v>1792.14335836334</v>
+        <v>1567.3981032251</v>
       </c>
       <c r="H223" t="n">
-        <v>23626.3147850734</v>
+        <v>20000</v>
       </c>
       <c r="I223" t="n">
-        <v>13800</v>
+        <v>11436.43599</v>
       </c>
       <c r="J223" t="n">
         <v>22.4137931034483</v>
@@ -19785,13 +19785,13 @@
         <v>330</v>
       </c>
       <c r="G241" t="n">
-        <v>2572.45370319092</v>
+        <v>2347.70844805268</v>
       </c>
       <c r="H241" t="n">
         <v>26000</v>
       </c>
       <c r="I241" t="n">
-        <v>18000</v>
+        <v>13800</v>
       </c>
       <c r="J241" t="n">
         <v>29.3103448275862</v>
@@ -19806,7 +19806,7 @@
         <v>3084</v>
       </c>
       <c r="N241" t="n">
-        <v>11678</v>
+        <v>10466.33739</v>
       </c>
       <c r="O241" t="n">
         <v>1839393</v>
@@ -19870,13 +19870,13 @@
         <v>330</v>
       </c>
       <c r="G242" t="n">
-        <v>2572.45370319092</v>
+        <v>2347.70844805268</v>
       </c>
       <c r="H242" t="n">
         <v>26000</v>
       </c>
       <c r="I242" t="n">
-        <v>18000</v>
+        <v>13800</v>
       </c>
       <c r="J242" t="n">
         <v>29.3103448275862</v>
@@ -19891,7 +19891,7 @@
         <v>3084</v>
       </c>
       <c r="N242" t="n">
-        <v>11678</v>
+        <v>10466.33739</v>
       </c>
       <c r="O242" t="n">
         <v>1839393</v>
@@ -19955,13 +19955,13 @@
         <v>330</v>
       </c>
       <c r="G243" t="n">
-        <v>2572.45370319092</v>
+        <v>2347.70844805268</v>
       </c>
       <c r="H243" t="n">
         <v>26000</v>
       </c>
       <c r="I243" t="n">
-        <v>18000</v>
+        <v>13800</v>
       </c>
       <c r="J243" t="n">
         <v>29.3103448275862</v>
@@ -19976,7 +19976,7 @@
         <v>3084</v>
       </c>
       <c r="N243" t="n">
-        <v>11678</v>
+        <v>10466.33739</v>
       </c>
       <c r="O243" t="n">
         <v>1839393</v>
@@ -20040,13 +20040,13 @@
         <v>330</v>
       </c>
       <c r="G244" t="n">
-        <v>2572.45370319092</v>
+        <v>2347.70844805268</v>
       </c>
       <c r="H244" t="n">
         <v>26000</v>
       </c>
       <c r="I244" t="n">
-        <v>18000</v>
+        <v>13800</v>
       </c>
       <c r="J244" t="n">
         <v>29.3103448275862</v>
@@ -20061,7 +20061,7 @@
         <v>3084</v>
       </c>
       <c r="N244" t="n">
-        <v>11678</v>
+        <v>10466.33739</v>
       </c>
       <c r="O244" t="n">
         <v>1839393</v>
@@ -21466,13 +21466,13 @@
         <v>340</v>
       </c>
       <c r="G262" t="n">
-        <v>2954.54319515676</v>
+        <v>2841.23138436334</v>
       </c>
       <c r="H262" t="n">
         <v>26000</v>
       </c>
       <c r="I262" t="n">
-        <v>18444.68018</v>
+        <v>17750</v>
       </c>
       <c r="J262" t="n">
         <v>33.8983050847458</v>
@@ -21487,7 +21487,7 @@
         <v>4076</v>
       </c>
       <c r="N262" t="n">
-        <v>14340</v>
+        <v>11690.0398</v>
       </c>
       <c r="O262" t="n">
         <v>1839393</v>
@@ -21551,13 +21551,13 @@
         <v>340</v>
       </c>
       <c r="G263" t="n">
-        <v>2954.54319515676</v>
+        <v>2841.23138436334</v>
       </c>
       <c r="H263" t="n">
         <v>26000</v>
       </c>
       <c r="I263" t="n">
-        <v>18444.68018</v>
+        <v>17750</v>
       </c>
       <c r="J263" t="n">
         <v>33.8983050847458</v>
@@ -21572,7 +21572,7 @@
         <v>4076</v>
       </c>
       <c r="N263" t="n">
-        <v>14340</v>
+        <v>11690.0398</v>
       </c>
       <c r="O263" t="n">
         <v>1839393</v>
@@ -21636,13 +21636,13 @@
         <v>340</v>
       </c>
       <c r="G264" t="n">
-        <v>2954.54319515676</v>
+        <v>2841.23138436334</v>
       </c>
       <c r="H264" t="n">
         <v>26000</v>
       </c>
       <c r="I264" t="n">
-        <v>18444.68018</v>
+        <v>17750</v>
       </c>
       <c r="J264" t="n">
         <v>33.8983050847458</v>
@@ -21657,7 +21657,7 @@
         <v>4076</v>
       </c>
       <c r="N264" t="n">
-        <v>14340</v>
+        <v>11690.0398</v>
       </c>
       <c r="O264" t="n">
         <v>1839393</v>
@@ -21721,13 +21721,13 @@
         <v>340</v>
       </c>
       <c r="G265" t="n">
-        <v>2954.54319515676</v>
+        <v>2841.23138436334</v>
       </c>
       <c r="H265" t="n">
         <v>26000</v>
       </c>
       <c r="I265" t="n">
-        <v>18444.68018</v>
+        <v>17750</v>
       </c>
       <c r="J265" t="n">
         <v>33.8983050847458</v>
@@ -21742,7 +21742,7 @@
         <v>4076</v>
       </c>
       <c r="N265" t="n">
-        <v>14340</v>
+        <v>11690.0398</v>
       </c>
       <c r="O265" t="n">
         <v>1839393</v>
@@ -23066,13 +23066,13 @@
         <v>285.5</v>
       </c>
       <c r="G282" t="n">
-        <v>2244.20773300429</v>
+        <v>2128.94227030064</v>
       </c>
       <c r="H282" t="n">
         <v>26000</v>
       </c>
       <c r="I282" t="n">
-        <v>13806.24024</v>
+        <v>10234.65399</v>
       </c>
       <c r="J282" t="n">
         <v>32.7586206896552</v>
@@ -23151,13 +23151,13 @@
         <v>285.5</v>
       </c>
       <c r="G283" t="n">
-        <v>2244.20773300429</v>
+        <v>2128.94227030064</v>
       </c>
       <c r="H283" t="n">
         <v>26000</v>
       </c>
       <c r="I283" t="n">
-        <v>13806.24024</v>
+        <v>10234.65399</v>
       </c>
       <c r="J283" t="n">
         <v>32.7586206896552</v>
@@ -23236,13 +23236,13 @@
         <v>285.5</v>
       </c>
       <c r="G284" t="n">
-        <v>2244.20773300429</v>
+        <v>2128.94227030064</v>
       </c>
       <c r="H284" t="n">
         <v>26000</v>
       </c>
       <c r="I284" t="n">
-        <v>13806.24024</v>
+        <v>10234.65399</v>
       </c>
       <c r="J284" t="n">
         <v>32.7586206896552</v>
@@ -23321,13 +23321,13 @@
         <v>285.5</v>
       </c>
       <c r="G285" t="n">
-        <v>2244.20773300429</v>
+        <v>2128.94227030064</v>
       </c>
       <c r="H285" t="n">
         <v>26000</v>
       </c>
       <c r="I285" t="n">
-        <v>13806.24024</v>
+        <v>10234.65399</v>
       </c>
       <c r="J285" t="n">
         <v>32.7586206896552</v>
